--- a/ISEF App WinForm/Data/Hlavicky/hlvallofkrotst.xlsx
+++ b/ISEF App WinForm/Data/Hlavicky/hlvallofkrotst.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ladislav.Suchy\Desktop\isef2\Generator Zosteav ConsoleApp\bin\Debug\Data\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rneme\source\repos\isef\Data Processing Library\Hlavicky\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557CFFEB-7D65-4D0D-9B07-42B17F3CCBBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zostava f" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Zostava f'!$A$1:$R$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Zostava f'!$A$1:$T$67</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Subjekt</t>
   </si>
@@ -76,9 +77,6 @@
   </si>
   <si>
     <t>Všetky zdroje - Výdavky</t>
-  </si>
-  <si>
-    <t>6+7+8+9xx</t>
   </si>
   <si>
     <t>6xx</t>
@@ -183,12 +181,28 @@
   </si>
   <si>
     <t>Agentúra MŠVVaŠ SR pre ŠF EÚ</t>
+  </si>
+  <si>
+    <t>Ostatné
+výdavky</t>
+  </si>
+  <si>
+    <t>Prevodová FO výdavková</t>
+  </si>
+  <si>
+    <t>94x</t>
+  </si>
+  <si>
+    <t>6+7+8+94x</t>
+  </si>
+  <si>
+    <t>8xx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -199,23 +213,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -233,17 +231,31 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="238"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,84 +357,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,27 +463,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>741589</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>23132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>36739</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7318" name="Freeform 1"/>
+        <xdr:cNvPr id="7318" name="Freeform 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000961C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="10800000">
-          <a:off x="714375" y="219075"/>
-          <a:ext cx="15697200" cy="200025"/>
+          <a:off x="741589" y="227239"/>
+          <a:ext cx="17242971" cy="194582"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -536,7 +563,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7319" name="Obrázok 3"/>
+        <xdr:cNvPr id="7319" name="Obrázok 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000971C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -593,7 +626,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -668,6 +701,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -703,6 +753,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -878,344 +945,456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hárok1"/>
-  <dimension ref="A2:V17"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" style="18" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="18" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="18" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="18" customWidth="1"/>
+    <col min="17" max="19" width="11.7109375" style="18" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="P2" s="23" t="s">
+    <row r="1" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="H5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="25" t="s">
+      <c r="I6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="33"/>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="M7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="33"/>
+    </row>
+    <row r="8" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="34"/>
+    </row>
+    <row r="12" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="C12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5">
+        <v>9999999999</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9999999999</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9999999999</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9999999999</v>
+      </c>
+      <c r="G13" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="H13" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="I13" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="J13" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="K13" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="L13" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="M13" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="N13" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="O13" s="5">
+        <v>9999999999</v>
+      </c>
+      <c r="P13" s="5">
+        <v>9999999999</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="R13" s="6">
+        <v>999999999</v>
+      </c>
+      <c r="S13" s="6">
+        <v>9999999</v>
+      </c>
+      <c r="T13" s="6">
+        <v>9999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="27"/>
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="27"/>
+    <row r="15" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="28"/>
-    </row>
-    <row r="12" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="15">
-        <v>9999999999</v>
-      </c>
-      <c r="D13" s="15">
-        <v>9999999999</v>
-      </c>
-      <c r="E13" s="15">
-        <v>9999999999</v>
-      </c>
-      <c r="F13" s="15">
-        <v>9999999999</v>
-      </c>
-      <c r="G13" s="15">
-        <v>999999999</v>
-      </c>
-      <c r="H13" s="15">
-        <v>999999999</v>
-      </c>
-      <c r="I13" s="15">
-        <v>999999999</v>
-      </c>
-      <c r="J13" s="15">
-        <v>999999999</v>
-      </c>
-      <c r="K13" s="15">
-        <v>999999999</v>
-      </c>
-      <c r="L13" s="15">
-        <v>999999999</v>
-      </c>
-      <c r="M13" s="15">
-        <v>999999999</v>
-      </c>
-      <c r="N13" s="15">
-        <v>999999999</v>
-      </c>
-      <c r="O13" s="15">
-        <v>9999999999</v>
-      </c>
-      <c r="P13" s="15">
-        <v>9999999999</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>999999999</v>
-      </c>
-      <c r="R13" s="16">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="14" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="13"/>
+    <row r="16" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="R5:R8"/>
-    <mergeCell ref="H6:H8"/>
+  <mergeCells count="18">
     <mergeCell ref="H5:N5"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="F5:F8"/>
-    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P2:T2"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="O5:O8"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="S5:S8"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="H6:H8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ISEF App WinForm/Data/Hlavicky/hlvallofkrotst.xlsx
+++ b/ISEF App WinForm/Data/Hlavicky/hlvallofkrotst.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rneme\source\repos\isef\Data Processing Library\Hlavicky\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondrej.ferenci\AppData\Roaming\CVTI SR\ISEF Data Processing\Hlavicky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557CFFEB-7D65-4D0D-9B07-42B17F3CCBBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840"/>
   </bookViews>
   <sheets>
     <sheet name="Zostava f" sheetId="9" r:id="rId1"/>
@@ -202,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -398,6 +397,21 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,19 +424,10 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,15 +440,9 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,175 +457,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>741589</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23132</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>36739</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7318" name="Freeform 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000961C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000">
-          <a:off x="741589" y="227239"/>
-          <a:ext cx="17242971" cy="194582"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="T0" fmla="*/ 0 w 7860"/>
-            <a:gd name="T1" fmla="*/ 0 h 1"/>
-            <a:gd name="T2" fmla="*/ 2147483646 w 7860"/>
-            <a:gd name="T3" fmla="*/ 0 h 1"/>
-            <a:gd name="T4" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T5" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T6" fmla="*/ 0 w 7860"/>
-            <a:gd name="T7" fmla="*/ 0 h 1"/>
-            <a:gd name="T8" fmla="*/ 7860 w 7860"/>
-            <a:gd name="T9" fmla="*/ 1 h 1"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="T4">
-              <a:pos x="T0" y="T1"/>
-            </a:cxn>
-            <a:cxn ang="T5">
-              <a:pos x="T2" y="T3"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="T6" t="T7" r="T8" b="T9"/>
-          <a:pathLst>
-            <a:path w="7860" h="1">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="7860" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="22225">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7319" name="Obrázok 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000971C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="47625" y="28575"/>
-          <a:ext cx="571500" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -701,23 +533,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -753,23 +568,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -945,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hárok1"/>
   <dimension ref="A1:X16"/>
   <sheetViews>
@@ -1011,13 +809,13 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1071,75 +869,75 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="25" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="T5" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="25" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="30" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="16" t="s">
@@ -1148,75 +946,75 @@
       <c r="M6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="33"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="35"/>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="16" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="33"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="35"/>
     </row>
     <row r="8" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="34"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="36"/>
     </row>
     <row r="12" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -1373,12 +1171,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="F5:F8"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="N6:N8"/>
@@ -1391,10 +1183,15 @@
     <mergeCell ref="Q5:Q8"/>
     <mergeCell ref="T5:T8"/>
     <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="F5:F8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>